--- a/digikey/digikey-list_TSAL-board.xlsx
+++ b/digikey/digikey-list_TSAL-board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi-ko\Desktop\University\EV\Kicad\TSAL-board\digikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B4128-1973-4D0A-BC35-54B338C741FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348928D6-E65B-4CBB-A1B6-C50D99B3209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{50DD8447-AE17-4D67-A139-92DAE72547D4}"/>
+    <workbookView xWindow="5400" yWindow="3012" windowWidth="17280" windowHeight="8880" xr2:uid="{50DD8447-AE17-4D67-A139-92DAE72547D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,13 +658,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A3B7F2-FCEF-482F-927F-22E10F66BE49}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -685,6 +686,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
       <c r="C2">
         <v>3</v>
       </c>
@@ -696,6 +700,9 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -707,6 +714,9 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -718,6 +728,9 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5">
         <v>4</v>
       </c>
@@ -729,6 +742,9 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -740,6 +756,9 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7">
         <v>2</v>
       </c>
@@ -751,6 +770,9 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -762,6 +784,9 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9">
         <v>2</v>
       </c>
@@ -773,6 +798,9 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>1</v>
       </c>
@@ -784,6 +812,9 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>1</v>
       </c>
@@ -795,6 +826,9 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
       <c r="C12">
         <v>3</v>
       </c>
@@ -806,6 +840,9 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -817,6 +854,9 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -828,6 +868,9 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
       <c r="C15">
         <v>3</v>
       </c>
@@ -839,6 +882,9 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
       <c r="C16">
         <v>5</v>
       </c>
@@ -850,6 +896,9 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -861,6 +910,9 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -872,6 +924,9 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
       <c r="C19">
         <v>5</v>
       </c>
@@ -883,6 +938,9 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
       <c r="C20">
         <v>10</v>
       </c>
@@ -894,6 +952,9 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
       <c r="C21">
         <v>8</v>
       </c>
@@ -905,6 +966,9 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -916,6 +980,9 @@
       <c r="A23" t="s">
         <v>47</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -927,6 +994,9 @@
       <c r="A24" t="s">
         <v>49</v>
       </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
       <c r="C24">
         <v>3</v>
       </c>
@@ -938,6 +1008,9 @@
       <c r="A25" t="s">
         <v>51</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -949,6 +1022,9 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
       <c r="C26">
         <v>2</v>
       </c>
@@ -960,6 +1036,9 @@
       <c r="A27" t="s">
         <v>55</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27">
         <v>1</v>
       </c>
@@ -971,6 +1050,9 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28">
         <v>1</v>
       </c>
@@ -982,6 +1064,9 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>1</v>
       </c>
@@ -992,6 +1077,9 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>60</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
